--- a/datos_reales.xlsx
+++ b/datos_reales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acfestadistica\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA4473E-26AA-4B60-96D2-6CD5B7BC8C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C905CA11-A587-41DE-8077-0F9B9AF90EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="48">
   <si>
     <t>AÑO</t>
   </si>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,6 +1883,650 @@
         <v>11465</v>
       </c>
     </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2026</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>10310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2026</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59">
+        <v>22195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2026</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2026</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2026</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2026</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2026</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2026</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2026</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2026</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2026</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68">
+        <v>7265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2026</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2026</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2026</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71">
+        <v>21350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2026</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72">
+        <v>10496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2026</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73">
+        <v>22350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2026</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74">
+        <v>13841</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2026</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2026</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2026</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2026</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78">
+        <v>23195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2026</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79">
+        <v>228666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2026</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80">
+        <v>6830</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2026</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81">
+        <v>16550</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2026</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2026</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2026</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2026</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85">
+        <v>14359</v>
+      </c>
+    </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="2"/>
     </row>

--- a/datos_reales.xlsx
+++ b/datos_reales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acfestadistica\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C905CA11-A587-41DE-8077-0F9B9AF90EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B70C761-33F7-4334-8985-C770C2C2B89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="48">
   <si>
     <t>AÑO</t>
   </si>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,6 +2527,650 @@
         <v>14359</v>
       </c>
     </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2026</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2026</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87">
+        <v>26771</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2026</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2026</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" t="s">
+        <v>47</v>
+      </c>
+      <c r="G89">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2026</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90">
+        <v>6518</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2026</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2026</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2026</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93">
+        <v>24185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2026</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94">
+        <v>7860</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2026</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2026</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96">
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2026</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" t="s">
+        <v>30</v>
+      </c>
+      <c r="G97">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2026</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2026</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" t="s">
+        <v>32</v>
+      </c>
+      <c r="G99">
+        <v>25700</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2026</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100">
+        <v>13953</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2026</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101">
+        <v>32605</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2026</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102">
+        <v>17226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2026</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2026</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2026</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2026</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106">
+        <v>29103</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2026</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" t="s">
+        <v>40</v>
+      </c>
+      <c r="G107">
+        <v>304105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2026</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" t="s">
+        <v>41</v>
+      </c>
+      <c r="G108">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2026</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" t="s">
+        <v>42</v>
+      </c>
+      <c r="G109">
+        <v>23585</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2026</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2026</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2026</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" t="s">
+        <v>45</v>
+      </c>
+      <c r="G112">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2026</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" t="s">
+        <v>46</v>
+      </c>
+      <c r="G113">
+        <v>15989</v>
+      </c>
+    </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="2"/>
     </row>

--- a/datos_reales.xlsx
+++ b/datos_reales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acfestadistica\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B70C761-33F7-4334-8985-C770C2C2B89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD080423-3AA7-4965-B2EC-BF20006898A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="48">
   <si>
     <t>AÑO</t>
   </si>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,6 +3171,650 @@
         <v>15989</v>
       </c>
     </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2026</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114">
+        <v>9189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2026</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115">
+        <v>23455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2026</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116">
+        <v>10474</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2026</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" t="s">
+        <v>47</v>
+      </c>
+      <c r="G117">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2026</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2026</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2026</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2026</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121">
+        <v>27237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2026</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2026</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123">
+        <v>12230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2026</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2026</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2026</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2026</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" t="s">
+        <v>32</v>
+      </c>
+      <c r="G127">
+        <v>16279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2026</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>33</v>
+      </c>
+      <c r="G128">
+        <v>14770</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2026</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129">
+        <v>35110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2026</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130">
+        <v>11882</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2026</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2026</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2026</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133">
+        <v>8020</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2026</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134">
+        <v>35775</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2026</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135">
+        <v>272061</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2026</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" t="s">
+        <v>41</v>
+      </c>
+      <c r="G136">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2026</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2026</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2026</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
+        <v>44</v>
+      </c>
+      <c r="G139">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2026</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140" t="s">
+        <v>45</v>
+      </c>
+      <c r="G140">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2026</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
+        <v>46</v>
+      </c>
+      <c r="G141">
+        <v>12775</v>
+      </c>
+    </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="2"/>
     </row>

--- a/datos_reales.xlsx
+++ b/datos_reales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acfestadistica\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD080423-3AA7-4965-B2EC-BF20006898A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB27DA6-DEED-4E95-82FC-78D0037D25F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="49">
   <si>
     <t>AÑO</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>SUNDAY MORNING</t>
+  </si>
+  <si>
+    <t>FEBRERO</t>
   </si>
 </sst>
 </file>
@@ -563,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3815,6 +3818,627 @@
         <v>12775</v>
       </c>
     </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2026</v>
+      </c>
+      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142">
+        <v>7295</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2026</v>
+      </c>
+      <c r="B143" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143">
+        <v>17636</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2026</v>
+      </c>
+      <c r="B144" t="s">
+        <v>48</v>
+      </c>
+      <c r="C144">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144">
+        <v>10565</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2026</v>
+      </c>
+      <c r="B145" t="s">
+        <v>48</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" t="s">
+        <v>47</v>
+      </c>
+      <c r="G145">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2026</v>
+      </c>
+      <c r="B146" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" t="s">
+        <v>23</v>
+      </c>
+      <c r="G146">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2026</v>
+      </c>
+      <c r="B147" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" t="s">
+        <v>25</v>
+      </c>
+      <c r="G147">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2026</v>
+      </c>
+      <c r="B148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" t="s">
+        <v>24</v>
+      </c>
+      <c r="G148">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2026</v>
+      </c>
+      <c r="B149" t="s">
+        <v>48</v>
+      </c>
+      <c r="C149">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149">
+        <v>19790</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2026</v>
+      </c>
+      <c r="B150" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" t="s">
+        <v>27</v>
+      </c>
+      <c r="G150">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2026</v>
+      </c>
+      <c r="B151" t="s">
+        <v>48</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" t="s">
+        <v>28</v>
+      </c>
+      <c r="G151">
+        <v>9078</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2026</v>
+      </c>
+      <c r="B152" t="s">
+        <v>48</v>
+      </c>
+      <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" t="s">
+        <v>29</v>
+      </c>
+      <c r="G152">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2026</v>
+      </c>
+      <c r="B153" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" t="s">
+        <v>30</v>
+      </c>
+      <c r="G153">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2026</v>
+      </c>
+      <c r="B154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2026</v>
+      </c>
+      <c r="B155" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" t="s">
+        <v>32</v>
+      </c>
+      <c r="G155">
+        <v>18499</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2026</v>
+      </c>
+      <c r="B156" t="s">
+        <v>48</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" t="s">
+        <v>33</v>
+      </c>
+      <c r="G156">
+        <v>13280</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2026</v>
+      </c>
+      <c r="B157" t="s">
+        <v>48</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157">
+        <v>26430</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2026</v>
+      </c>
+      <c r="B158" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" t="s">
+        <v>35</v>
+      </c>
+      <c r="G158">
+        <v>12143</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2026</v>
+      </c>
+      <c r="B159" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" t="s">
+        <v>36</v>
+      </c>
+      <c r="G159">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2026</v>
+      </c>
+      <c r="B160" t="s">
+        <v>48</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" t="s">
+        <v>37</v>
+      </c>
+      <c r="G160">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2026</v>
+      </c>
+      <c r="B161" t="s">
+        <v>48</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161" t="s">
+        <v>38</v>
+      </c>
+      <c r="G161">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2026</v>
+      </c>
+      <c r="B162" t="s">
+        <v>48</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" t="s">
+        <v>39</v>
+      </c>
+      <c r="G162">
+        <v>29301</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2026</v>
+      </c>
+      <c r="B163" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" t="s">
+        <v>17</v>
+      </c>
+      <c r="F163" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163">
+        <v>177428</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2026</v>
+      </c>
+      <c r="B164" t="s">
+        <v>48</v>
+      </c>
+      <c r="C164">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>18</v>
+      </c>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" t="s">
+        <v>41</v>
+      </c>
+      <c r="G164">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2026</v>
+      </c>
+      <c r="B165" t="s">
+        <v>48</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165" t="s">
+        <v>42</v>
+      </c>
+      <c r="G165">
+        <v>11032</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2026</v>
+      </c>
+      <c r="B166" t="s">
+        <v>48</v>
+      </c>
+      <c r="C166">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166" t="s">
+        <v>43</v>
+      </c>
+      <c r="G166">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2026</v>
+      </c>
+      <c r="B167" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" t="s">
+        <v>19</v>
+      </c>
+      <c r="F167" t="s">
+        <v>45</v>
+      </c>
+      <c r="G167">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2026</v>
+      </c>
+      <c r="B168" t="s">
+        <v>48</v>
+      </c>
+      <c r="C168">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>18</v>
+      </c>
+      <c r="E168" t="s">
+        <v>19</v>
+      </c>
+      <c r="F168" t="s">
+        <v>46</v>
+      </c>
+      <c r="G168">
+        <v>11415</v>
+      </c>
+    </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="2"/>
     </row>

--- a/datos_reales.xlsx
+++ b/datos_reales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acfestadistica\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB27DA6-DEED-4E95-82FC-78D0037D25F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD85E05-0321-48DD-8679-77DDDF18C34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="49">
   <si>
     <t>AÑO</t>
   </si>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4439,6 +4439,627 @@
         <v>11415</v>
       </c>
     </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2026</v>
+      </c>
+      <c r="B169" t="s">
+        <v>48</v>
+      </c>
+      <c r="C169">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" t="s">
+        <v>20</v>
+      </c>
+      <c r="G169">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2026</v>
+      </c>
+      <c r="B170" t="s">
+        <v>48</v>
+      </c>
+      <c r="C170">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170">
+        <v>14570</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2026</v>
+      </c>
+      <c r="B171" t="s">
+        <v>48</v>
+      </c>
+      <c r="C171">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" t="s">
+        <v>22</v>
+      </c>
+      <c r="G171">
+        <v>8570</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2026</v>
+      </c>
+      <c r="B172" t="s">
+        <v>48</v>
+      </c>
+      <c r="C172">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" t="s">
+        <v>47</v>
+      </c>
+      <c r="G172">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2026</v>
+      </c>
+      <c r="B173" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" t="s">
+        <v>23</v>
+      </c>
+      <c r="G173">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2026</v>
+      </c>
+      <c r="B174" t="s">
+        <v>48</v>
+      </c>
+      <c r="C174">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" t="s">
+        <v>25</v>
+      </c>
+      <c r="G174">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2026</v>
+      </c>
+      <c r="B175" t="s">
+        <v>48</v>
+      </c>
+      <c r="C175">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" t="s">
+        <v>24</v>
+      </c>
+      <c r="G175">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2026</v>
+      </c>
+      <c r="B176" t="s">
+        <v>48</v>
+      </c>
+      <c r="C176">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176">
+        <v>19920</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2026</v>
+      </c>
+      <c r="B177" t="s">
+        <v>48</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" t="s">
+        <v>27</v>
+      </c>
+      <c r="G177">
+        <v>4630</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2026</v>
+      </c>
+      <c r="B178" t="s">
+        <v>48</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" t="s">
+        <v>28</v>
+      </c>
+      <c r="G178">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2026</v>
+      </c>
+      <c r="B179" t="s">
+        <v>48</v>
+      </c>
+      <c r="C179">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" t="s">
+        <v>29</v>
+      </c>
+      <c r="G179">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2026</v>
+      </c>
+      <c r="B180" t="s">
+        <v>48</v>
+      </c>
+      <c r="C180">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" t="s">
+        <v>30</v>
+      </c>
+      <c r="G180">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2026</v>
+      </c>
+      <c r="B181" t="s">
+        <v>48</v>
+      </c>
+      <c r="C181">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2026</v>
+      </c>
+      <c r="B182" t="s">
+        <v>48</v>
+      </c>
+      <c r="C182">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" t="s">
+        <v>32</v>
+      </c>
+      <c r="G182">
+        <v>10863</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2026</v>
+      </c>
+      <c r="B183" t="s">
+        <v>48</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" t="s">
+        <v>33</v>
+      </c>
+      <c r="G183">
+        <v>14371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2026</v>
+      </c>
+      <c r="B184" t="s">
+        <v>48</v>
+      </c>
+      <c r="C184">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2026</v>
+      </c>
+      <c r="B185" t="s">
+        <v>48</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" t="s">
+        <v>35</v>
+      </c>
+      <c r="G185">
+        <v>7545</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2026</v>
+      </c>
+      <c r="B186" t="s">
+        <v>48</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+      <c r="D186" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G186">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2026</v>
+      </c>
+      <c r="B187" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" t="s">
+        <v>37</v>
+      </c>
+      <c r="G187">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2026</v>
+      </c>
+      <c r="B188" t="s">
+        <v>48</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" t="s">
+        <v>38</v>
+      </c>
+      <c r="G188">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2026</v>
+      </c>
+      <c r="B189" t="s">
+        <v>48</v>
+      </c>
+      <c r="C189">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" t="s">
+        <v>19</v>
+      </c>
+      <c r="F189" t="s">
+        <v>39</v>
+      </c>
+      <c r="G189">
+        <v>26178</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2026</v>
+      </c>
+      <c r="B190" t="s">
+        <v>48</v>
+      </c>
+      <c r="C190">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" t="s">
+        <v>40</v>
+      </c>
+      <c r="G190">
+        <v>123902</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2026</v>
+      </c>
+      <c r="B191" t="s">
+        <v>48</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" t="s">
+        <v>41</v>
+      </c>
+      <c r="G191">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2026</v>
+      </c>
+      <c r="B192" t="s">
+        <v>48</v>
+      </c>
+      <c r="C192">
+        <v>7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>18</v>
+      </c>
+      <c r="E192" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" t="s">
+        <v>42</v>
+      </c>
+      <c r="G192">
+        <v>11948</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2026</v>
+      </c>
+      <c r="B193" t="s">
+        <v>48</v>
+      </c>
+      <c r="C193">
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" t="s">
+        <v>43</v>
+      </c>
+      <c r="G193">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2026</v>
+      </c>
+      <c r="B194" t="s">
+        <v>48</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>18</v>
+      </c>
+      <c r="E194" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194" t="s">
+        <v>45</v>
+      </c>
+      <c r="G194">
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2026</v>
+      </c>
+      <c r="B195" t="s">
+        <v>48</v>
+      </c>
+      <c r="C195">
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" t="s">
+        <v>46</v>
+      </c>
+      <c r="G195">
+        <v>9021</v>
+      </c>
+    </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="2"/>
     </row>

--- a/datos_reales.xlsx
+++ b/datos_reales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acfestadistica\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD85E05-0321-48DD-8679-77DDDF18C34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F599F0A6-1545-40D1-BF2E-C07C97935A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="49">
   <si>
     <t>AÑO</t>
   </si>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5060,6 +5060,627 @@
         <v>9021</v>
       </c>
     </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2026</v>
+      </c>
+      <c r="B196" t="s">
+        <v>48</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196" t="s">
+        <v>20</v>
+      </c>
+      <c r="G196">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2026</v>
+      </c>
+      <c r="B197" t="s">
+        <v>48</v>
+      </c>
+      <c r="C197">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" t="s">
+        <v>19</v>
+      </c>
+      <c r="F197" t="s">
+        <v>21</v>
+      </c>
+      <c r="G197">
+        <v>10582</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2026</v>
+      </c>
+      <c r="B198" t="s">
+        <v>48</v>
+      </c>
+      <c r="C198">
+        <v>8</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" t="s">
+        <v>22</v>
+      </c>
+      <c r="G198">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2026</v>
+      </c>
+      <c r="B199" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" t="s">
+        <v>19</v>
+      </c>
+      <c r="F199" t="s">
+        <v>47</v>
+      </c>
+      <c r="G199">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2026</v>
+      </c>
+      <c r="B200" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200">
+        <v>8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" t="s">
+        <v>19</v>
+      </c>
+      <c r="F200" t="s">
+        <v>23</v>
+      </c>
+      <c r="G200">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2026</v>
+      </c>
+      <c r="B201" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" t="s">
+        <v>19</v>
+      </c>
+      <c r="F201" t="s">
+        <v>25</v>
+      </c>
+      <c r="G201">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2026</v>
+      </c>
+      <c r="B202" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202">
+        <v>8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202" t="s">
+        <v>24</v>
+      </c>
+      <c r="G202">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2026</v>
+      </c>
+      <c r="B203" t="s">
+        <v>48</v>
+      </c>
+      <c r="C203">
+        <v>8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" t="s">
+        <v>26</v>
+      </c>
+      <c r="G203">
+        <v>15710</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2026</v>
+      </c>
+      <c r="B204" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" t="s">
+        <v>27</v>
+      </c>
+      <c r="G204">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2026</v>
+      </c>
+      <c r="B205" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>19</v>
+      </c>
+      <c r="F205" t="s">
+        <v>28</v>
+      </c>
+      <c r="G205">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2026</v>
+      </c>
+      <c r="B206" t="s">
+        <v>48</v>
+      </c>
+      <c r="C206">
+        <v>8</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
+        <v>19</v>
+      </c>
+      <c r="F206" t="s">
+        <v>29</v>
+      </c>
+      <c r="G206">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2026</v>
+      </c>
+      <c r="B207" t="s">
+        <v>48</v>
+      </c>
+      <c r="C207">
+        <v>8</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207" t="s">
+        <v>30</v>
+      </c>
+      <c r="G207">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2026</v>
+      </c>
+      <c r="B208" t="s">
+        <v>48</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" t="s">
+        <v>31</v>
+      </c>
+      <c r="G208">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2026</v>
+      </c>
+      <c r="B209" t="s">
+        <v>48</v>
+      </c>
+      <c r="C209">
+        <v>8</v>
+      </c>
+      <c r="D209" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" t="s">
+        <v>19</v>
+      </c>
+      <c r="F209" t="s">
+        <v>32</v>
+      </c>
+      <c r="G209">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2026</v>
+      </c>
+      <c r="B210" t="s">
+        <v>48</v>
+      </c>
+      <c r="C210">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210">
+        <v>11396</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2026</v>
+      </c>
+      <c r="B211" t="s">
+        <v>48</v>
+      </c>
+      <c r="C211">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211" t="s">
+        <v>34</v>
+      </c>
+      <c r="G211">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2026</v>
+      </c>
+      <c r="B212" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>15</v>
+      </c>
+      <c r="E212" t="s">
+        <v>19</v>
+      </c>
+      <c r="F212" t="s">
+        <v>35</v>
+      </c>
+      <c r="G212">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2026</v>
+      </c>
+      <c r="B213" t="s">
+        <v>48</v>
+      </c>
+      <c r="C213">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213" t="s">
+        <v>19</v>
+      </c>
+      <c r="F213" t="s">
+        <v>36</v>
+      </c>
+      <c r="G213">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2026</v>
+      </c>
+      <c r="B214" t="s">
+        <v>48</v>
+      </c>
+      <c r="C214">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" t="s">
+        <v>19</v>
+      </c>
+      <c r="F214" t="s">
+        <v>37</v>
+      </c>
+      <c r="G214">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2026</v>
+      </c>
+      <c r="B215" t="s">
+        <v>48</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215" t="s">
+        <v>19</v>
+      </c>
+      <c r="F215" t="s">
+        <v>38</v>
+      </c>
+      <c r="G215">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2026</v>
+      </c>
+      <c r="B216" t="s">
+        <v>48</v>
+      </c>
+      <c r="C216">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>16</v>
+      </c>
+      <c r="E216" t="s">
+        <v>19</v>
+      </c>
+      <c r="F216" t="s">
+        <v>39</v>
+      </c>
+      <c r="G216">
+        <v>23781</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2026</v>
+      </c>
+      <c r="B217" t="s">
+        <v>48</v>
+      </c>
+      <c r="C217">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" t="s">
+        <v>17</v>
+      </c>
+      <c r="F217" t="s">
+        <v>40</v>
+      </c>
+      <c r="G217">
+        <v>104316</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2026</v>
+      </c>
+      <c r="B218" t="s">
+        <v>48</v>
+      </c>
+      <c r="C218">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2026</v>
+      </c>
+      <c r="B219" t="s">
+        <v>48</v>
+      </c>
+      <c r="C219">
+        <v>8</v>
+      </c>
+      <c r="D219" t="s">
+        <v>18</v>
+      </c>
+      <c r="E219" t="s">
+        <v>19</v>
+      </c>
+      <c r="F219" t="s">
+        <v>42</v>
+      </c>
+      <c r="G219">
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2026</v>
+      </c>
+      <c r="B220" t="s">
+        <v>48</v>
+      </c>
+      <c r="C220">
+        <v>8</v>
+      </c>
+      <c r="D220" t="s">
+        <v>18</v>
+      </c>
+      <c r="E220" t="s">
+        <v>19</v>
+      </c>
+      <c r="F220" t="s">
+        <v>43</v>
+      </c>
+      <c r="G220">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2026</v>
+      </c>
+      <c r="B221" t="s">
+        <v>48</v>
+      </c>
+      <c r="C221">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" t="s">
+        <v>19</v>
+      </c>
+      <c r="F221" t="s">
+        <v>45</v>
+      </c>
+      <c r="G221">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2026</v>
+      </c>
+      <c r="B222" t="s">
+        <v>48</v>
+      </c>
+      <c r="C222">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>18</v>
+      </c>
+      <c r="E222" t="s">
+        <v>19</v>
+      </c>
+      <c r="F222" t="s">
+        <v>46</v>
+      </c>
+      <c r="G222">
+        <v>6818</v>
+      </c>
+    </row>
     <row r="771" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G771" s="2"/>
     </row>
